--- a/Documentation/Pokemon_learnset_rebalance/002_Ivysaur.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/002_Ivysaur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E9404-EF25-45D8-BB48-CA53CCEE2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D0900D-8518-4ECE-9390-863E82E26440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>Level</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Growl</t>
   </si>
   <si>
-    <t>Vine Whip</t>
-  </si>
-  <si>
     <t>Sleep Powder</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>Nature Power</t>
   </si>
   <si>
-    <t>Growth</t>
-  </si>
-  <si>
     <t>Body Slam</t>
   </si>
   <si>
@@ -397,6 +391,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Bullet Seed</t>
+  </si>
+  <si>
+    <t>PoisonPowder</t>
+  </si>
+  <si>
+    <t>Seed Bomb</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -817,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -834,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -851,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -868,7 +871,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -885,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -899,7 +902,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -913,7 +916,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -922,7 +925,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -930,7 +933,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -944,7 +947,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -1001,7 +1004,7 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.35">
@@ -1020,7 +1023,7 @@
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.35">
@@ -1031,7 +1034,7 @@
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.35">
@@ -1058,7 +1061,7 @@
         <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.35">

--- a/Documentation/Pokemon_learnset_rebalance/002_Ivysaur.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/002_Ivysaur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D0900D-8518-4ECE-9390-863E82E26440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C550127-A01A-4DE1-BA3A-B46BDE82A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
